--- a/reconstruction-tools-assessment/supplementary material/S11_table.xlsx
+++ b/reconstruction-tools-assessment/supplementary material/S11_table.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="16729"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Research_Projects\Review_reconstruction\manuscript\supplementary material\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CABFB7E5-46A8-437E-85D8-00F40544CEE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9402"/>
+    <workbookView xWindow="3468" yWindow="312" windowWidth="17280" windowHeight="9444" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="S11 Table" sheetId="1" r:id="rId1"/>
@@ -154,9 +155,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -207,9 +208,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -523,11 +522,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:F31"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="88" workbookViewId="0">
+      <selection activeCell="F5" sqref="B5:F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -581,19 +580,19 @@
         <v>5</v>
       </c>
       <c r="B5" s="5">
-        <v>52.804642166344294</v>
+        <v>54.174757281553397</v>
       </c>
       <c r="C5" s="5">
-        <v>56.183965195773773</v>
+        <v>57.517155333749223</v>
       </c>
       <c r="D5" s="5">
-        <v>56.743318831572402</v>
+        <v>58.078602620087338</v>
       </c>
       <c r="E5" s="5">
-        <v>56.183965195773773</v>
+        <v>57.517155333749223</v>
       </c>
       <c r="F5" s="5">
-        <v>56.743318831572402</v>
+        <v>58.078602620087302</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -601,19 +600,19 @@
         <v>6</v>
       </c>
       <c r="B6" s="5">
-        <v>52.546744036105736</v>
+        <v>53.91585760517799</v>
       </c>
       <c r="C6" s="5">
-        <v>56.059664387818522</v>
+        <v>57.392389270118528</v>
       </c>
       <c r="D6" s="5">
-        <v>56.619018023617151</v>
+        <v>57.953836556456643</v>
       </c>
       <c r="E6" s="5">
-        <v>56.059664387818522</v>
+        <v>57.392389270118528</v>
       </c>
       <c r="F6" s="5">
-        <v>56.619018023617151</v>
+        <v>57.953836556456643</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -621,19 +620,19 @@
         <v>7</v>
       </c>
       <c r="B7" s="5">
-        <v>41.908446163765312</v>
+        <v>42.135922330097088</v>
       </c>
       <c r="C7" s="5">
-        <v>42.697327532628961</v>
+        <v>43.418590143480976</v>
       </c>
       <c r="D7" s="5">
-        <v>43.070229956494714</v>
+        <v>43.792888334373053</v>
       </c>
       <c r="E7" s="5">
-        <v>42.697327532628961</v>
+        <v>43.418590143480976</v>
       </c>
       <c r="F7" s="5">
-        <v>43.070229956494714</v>
+        <v>43.792888334373053</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -641,19 +640,19 @@
         <v>8</v>
       </c>
       <c r="B8" s="5">
-        <v>41.199226305609287</v>
+        <v>44.854368932038838</v>
       </c>
       <c r="C8" s="5">
-        <v>41.889372280919829</v>
+        <v>46.412975670617591</v>
       </c>
       <c r="D8" s="5">
-        <v>42.262274704785582</v>
+        <v>46.787273861509668</v>
       </c>
       <c r="E8" s="5">
-        <v>41.889372280919829</v>
+        <v>46.412975670617591</v>
       </c>
       <c r="F8" s="5">
-        <v>42.262274704785582</v>
+        <v>46.787273861509668</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -661,19 +660,19 @@
         <v>9</v>
       </c>
       <c r="B9" s="5">
-        <v>41.070277240490007</v>
+        <v>43.818770226537218</v>
       </c>
       <c r="C9" s="5">
-        <v>41.827221876942197</v>
+        <v>45.414847161572055</v>
       </c>
       <c r="D9" s="5">
-        <v>42.200124300807957</v>
+        <v>46.163443543356209</v>
       </c>
       <c r="E9" s="5">
-        <v>41.827221876942197</v>
+        <v>45.414847161572055</v>
       </c>
       <c r="F9" s="5">
-        <v>42.200124300807957</v>
+        <v>46.163443543356209</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -681,19 +680,19 @@
         <v>10</v>
       </c>
       <c r="B10" s="5">
-        <v>39.329464861379755</v>
+        <v>39.741100323624593</v>
       </c>
       <c r="C10" s="5">
-        <v>40.58421379738968</v>
+        <v>40.860885839051775</v>
       </c>
       <c r="D10" s="5">
-        <v>40.894965817277814</v>
+        <v>41.172800998128508</v>
       </c>
       <c r="E10" s="5">
-        <v>40.58421379738968</v>
+        <v>40.860885839051775</v>
       </c>
       <c r="F10" s="5">
-        <v>40.894965817277814</v>
+        <v>41.172800998128508</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -701,19 +700,19 @@
         <v>11</v>
       </c>
       <c r="B11" s="5">
-        <v>18.891038039974209</v>
+        <v>20.323624595469255</v>
       </c>
       <c r="C11" s="5">
-        <v>18.645121193287757</v>
+        <v>20.399251403618216</v>
       </c>
       <c r="D11" s="5">
-        <v>19.453076444996892</v>
+        <v>21.272613849033064</v>
       </c>
       <c r="E11" s="5">
-        <v>22.436295835922934</v>
+        <v>23.955084217092949</v>
       </c>
       <c r="F11" s="5">
-        <v>23.244251087632069</v>
+        <v>24.828446662507798</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -721,19 +720,19 @@
         <v>12</v>
       </c>
       <c r="B12" s="5">
-        <v>19.148936170212767</v>
+        <v>20.582524271844662</v>
       </c>
       <c r="C12" s="5">
-        <v>18.893722809198259</v>
+        <v>20.648783530879601</v>
       </c>
       <c r="D12" s="5">
-        <v>19.701678060907398</v>
+        <v>21.522145976294446</v>
       </c>
       <c r="E12" s="5">
-        <v>22.747047855811061</v>
+        <v>24.266999376169682</v>
       </c>
       <c r="F12" s="5">
-        <v>23.5550031075202</v>
+        <v>25.140361821584531</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -741,19 +740,19 @@
         <v>13</v>
       </c>
       <c r="B13" s="5">
-        <v>18.181818181818183</v>
+        <v>19.223300970873787</v>
       </c>
       <c r="C13" s="5">
-        <v>17.961466749533873</v>
+        <v>19.338739862757329</v>
       </c>
       <c r="D13" s="5">
-        <v>18.769422001243008</v>
+        <v>20.14971927635683</v>
       </c>
       <c r="E13" s="5">
-        <v>21.441889372280919</v>
+        <v>22.769806612601371</v>
       </c>
       <c r="F13" s="5">
-        <v>22.249844623990057</v>
+        <v>23.580786026200872</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -761,19 +760,19 @@
         <v>14</v>
       </c>
       <c r="B14" s="5">
-        <v>17.794970986460349</v>
+        <v>18.705501618122977</v>
       </c>
       <c r="C14" s="5">
-        <v>17.526413921690491</v>
+        <v>18.777292576419214</v>
       </c>
       <c r="D14" s="5">
-        <v>18.334369173399626</v>
+        <v>19.588271990018715</v>
       </c>
       <c r="E14" s="5">
-        <v>20.696084524549409</v>
+        <v>21.896444167186527</v>
       </c>
       <c r="F14" s="5">
-        <v>21.504039776258544</v>
+        <v>22.707423580786028</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -781,19 +780,19 @@
         <v>15</v>
       </c>
       <c r="B15" s="5">
-        <v>18.891038039974209</v>
+        <v>20.323624595469255</v>
       </c>
       <c r="C15" s="5">
-        <v>18.645121193287757</v>
+        <v>20.399251403618216</v>
       </c>
       <c r="D15" s="5">
-        <v>19.453076444996892</v>
+        <v>21.272613849033064</v>
       </c>
       <c r="E15" s="5">
-        <v>22.436295835922934</v>
+        <v>23.955084217092949</v>
       </c>
       <c r="F15" s="5">
-        <v>23.244251087632069</v>
+        <v>24.828446662507798</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -801,19 +800,19 @@
         <v>16</v>
       </c>
       <c r="B16" s="5">
-        <v>20.438426821405546</v>
+        <v>21.423948220064727</v>
       </c>
       <c r="C16" s="5">
-        <v>17.464263517712865</v>
+        <v>18.34061135371179</v>
       </c>
       <c r="D16" s="5">
-        <v>22.933499067743941</v>
+        <v>23.955084217092949</v>
       </c>
       <c r="E16" s="5">
-        <v>19.142324425108765</v>
+        <v>19.650655021834062</v>
       </c>
       <c r="F16" s="5">
-        <v>26.227470478558111</v>
+        <v>26.887086712414224</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -821,19 +820,19 @@
         <v>17</v>
       </c>
       <c r="B17" s="5">
-        <v>20.438426821405546</v>
+        <v>21.423948220064727</v>
       </c>
       <c r="C17" s="5">
-        <v>17.464263517712865</v>
+        <v>18.34061135371179</v>
       </c>
       <c r="D17" s="5">
-        <v>22.933499067743941</v>
+        <v>23.955084217092949</v>
       </c>
       <c r="E17" s="5">
-        <v>19.142324425108765</v>
+        <v>19.650655021834062</v>
       </c>
       <c r="F17" s="5">
-        <v>26.227470478558111</v>
+        <v>26.887086712414224</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -841,19 +840,19 @@
         <v>18</v>
       </c>
       <c r="B18" s="5">
-        <v>22.630560928433269</v>
+        <v>24.01294498381877</v>
       </c>
       <c r="C18" s="5">
-        <v>15.972653822249844</v>
+        <v>16.718652526512788</v>
       </c>
       <c r="D18" s="5">
-        <v>23.182100683654443</v>
+        <v>24.703680598877106</v>
       </c>
       <c r="E18" s="5">
-        <v>18.707271597265382</v>
+        <v>18.964441671865252</v>
       </c>
       <c r="F18" s="5">
-        <v>27.843380981976384</v>
+        <v>28.25951341235184</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -861,19 +860,19 @@
         <v>19</v>
       </c>
       <c r="B19" s="5">
-        <v>22.823984526112184</v>
+        <v>24.207119741100325</v>
       </c>
       <c r="C19" s="5">
-        <v>16.034804226227472</v>
+        <v>16.781035558328135</v>
       </c>
       <c r="D19" s="5">
-        <v>23.36855189558732</v>
+        <v>24.890829694323145</v>
       </c>
       <c r="E19" s="5">
-        <v>18.769422001243008</v>
+        <v>19.0268247036806</v>
       </c>
       <c r="F19" s="5">
-        <v>28.029832193909261</v>
+        <v>28.446662507797878</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -881,19 +880,19 @@
         <v>20</v>
       </c>
       <c r="B20" s="5">
-        <v>22.114764667956159</v>
+        <v>23.430420711974111</v>
       </c>
       <c r="C20" s="5">
-        <v>15.475450590428839</v>
+        <v>16.157205240174672</v>
       </c>
       <c r="D20" s="5">
-        <v>22.684897451833436</v>
+        <v>24.142233312538988</v>
       </c>
       <c r="E20" s="5">
-        <v>18.210068365444375</v>
+        <v>18.402994385527137</v>
       </c>
       <c r="F20" s="5">
-        <v>27.284027346177751</v>
+        <v>27.635683094198377</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -901,19 +900,19 @@
         <v>21</v>
       </c>
       <c r="B21" s="5">
-        <v>23.081882656350743</v>
+        <v>24.466019417475728</v>
       </c>
       <c r="C21" s="5">
-        <v>16.096954630205097</v>
+        <v>16.843418590143482</v>
       </c>
       <c r="D21" s="5">
-        <v>23.617153511497825</v>
+        <v>25.140361821584531</v>
       </c>
       <c r="E21" s="5">
-        <v>18.831572405220633</v>
+        <v>19.089207735495947</v>
       </c>
       <c r="F21" s="5">
-        <v>28.340584213797388</v>
+        <v>28.758577666874611</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -921,19 +920,19 @@
         <v>22</v>
       </c>
       <c r="B22" s="5">
-        <v>23.081882656350743</v>
+        <v>24.466019417475728</v>
       </c>
       <c r="C22" s="5">
-        <v>16.096954630205097</v>
+        <v>16.843418590143482</v>
       </c>
       <c r="D22" s="5">
-        <v>23.617153511497825</v>
+        <v>25.140361821584531</v>
       </c>
       <c r="E22" s="5">
-        <v>18.831572405220633</v>
+        <v>19.089207735495947</v>
       </c>
       <c r="F22" s="5">
-        <v>28.340584213797388</v>
+        <v>28.758577666874611</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -941,19 +940,19 @@
         <v>23</v>
       </c>
       <c r="B23" s="5">
-        <v>23.017408123791103</v>
+        <v>24.336569579288025</v>
       </c>
       <c r="C23" s="5">
-        <v>16.159105034182723</v>
+        <v>16.843418590143482</v>
       </c>
       <c r="D23" s="5">
-        <v>23.5550031075202</v>
+        <v>25.015595757953836</v>
       </c>
       <c r="E23" s="5">
-        <v>18.893722809198259</v>
+        <v>19.089207735495947</v>
       </c>
       <c r="F23" s="5">
-        <v>28.278433809819763</v>
+        <v>28.633811603243917</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -961,19 +960,19 @@
         <v>24</v>
       </c>
       <c r="B24" s="5">
-        <v>15.989684074790457</v>
+        <v>16.828478964401295</v>
       </c>
       <c r="C24" s="5">
-        <v>14.729645742697327</v>
+        <v>15.845290081097941</v>
       </c>
       <c r="D24" s="5">
-        <v>15.226848974518335</v>
+        <v>16.344354335620711</v>
       </c>
       <c r="E24" s="5">
-        <v>17.588564325668116</v>
+        <v>18.527760449157828</v>
       </c>
       <c r="F24" s="5">
-        <v>18.085767557489124</v>
+        <v>19.0268247036806</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -981,19 +980,19 @@
         <v>25</v>
       </c>
       <c r="B25" s="5">
-        <v>16.054158607350097</v>
+        <v>16.893203883495147</v>
       </c>
       <c r="C25" s="5">
-        <v>14.729645742697327</v>
+        <v>15.845290081097941</v>
       </c>
       <c r="D25" s="5">
-        <v>15.28899937849596</v>
+        <v>16.406737367436058</v>
       </c>
       <c r="E25" s="5">
-        <v>17.650714729645742</v>
+        <v>18.590143480973175</v>
       </c>
       <c r="F25" s="5">
-        <v>18.210068365444375</v>
+        <v>19.151590767311291</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1001,19 +1000,19 @@
         <v>26</v>
       </c>
       <c r="B26" s="5">
-        <v>15.731785944551902</v>
+        <v>16.569579288025889</v>
       </c>
       <c r="C26" s="5">
-        <v>14.481044126786824</v>
+        <v>15.595757953836557</v>
       </c>
       <c r="D26" s="5">
-        <v>14.916096954630206</v>
+        <v>16.032439176543981</v>
       </c>
       <c r="E26" s="5">
-        <v>17.277812305779989</v>
+        <v>18.215845290081099</v>
       </c>
       <c r="F26" s="5">
-        <v>17.712865133623367</v>
+        <v>18.652526512788523</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1021,19 +1020,19 @@
         <v>27</v>
       </c>
       <c r="B27" s="5">
-        <v>15.409413281753707</v>
+        <v>16.181229773462782</v>
       </c>
       <c r="C27" s="5">
-        <v>14.108141702921069</v>
+        <v>15.159076731129133</v>
       </c>
       <c r="D27" s="5">
-        <v>14.543194530764451</v>
+        <v>15.595757953836557</v>
       </c>
       <c r="E27" s="5">
-        <v>16.967060285891858</v>
+        <v>17.841547099189022</v>
       </c>
       <c r="F27" s="5">
-        <v>17.40211311373524</v>
+        <v>18.278228321896446</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1041,19 +1040,19 @@
         <v>28</v>
       </c>
       <c r="B28" s="5">
-        <v>16.054158607350097</v>
+        <v>17.087378640776699</v>
       </c>
       <c r="C28" s="5">
-        <v>14.791796146674953</v>
+        <v>16.094822208359325</v>
       </c>
       <c r="D28" s="5">
-        <v>15.28899937849596</v>
+        <v>16.593886462882097</v>
       </c>
       <c r="E28" s="5">
-        <v>17.899316345556247</v>
+        <v>18.839675608234561</v>
       </c>
       <c r="F28" s="5">
-        <v>18.396519577377251</v>
+        <v>19.338739862757329</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1061,19 +1060,19 @@
         <v>29</v>
       </c>
       <c r="B29" s="5">
-        <v>22.566086395873629</v>
+        <v>23.818770226537218</v>
       </c>
       <c r="C29" s="5">
-        <v>15.786202610316968</v>
+        <v>16.406737367436058</v>
       </c>
       <c r="D29" s="5">
-        <v>23.057799875699192</v>
+        <v>24.454148471615721</v>
       </c>
       <c r="E29" s="5">
-        <v>18.334369173399626</v>
+        <v>18.527760449157828</v>
       </c>
       <c r="F29" s="5">
-        <v>27.594779366065879</v>
+        <v>27.94759825327511</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1081,19 +1080,19 @@
         <v>30</v>
       </c>
       <c r="B30" s="5">
-        <v>18.568665377176014</v>
+        <v>19.546925566343042</v>
       </c>
       <c r="C30" s="5">
-        <v>13.238036047234306</v>
+        <v>13.724266999376169</v>
       </c>
       <c r="D30" s="5">
-        <v>19.142324425108765</v>
+        <v>20.212102308172177</v>
       </c>
       <c r="E30" s="5">
-        <v>15.164698570540709</v>
+        <v>15.283842794759826</v>
       </c>
       <c r="F30" s="5">
-        <v>22.933499067743941</v>
+        <v>23.206487835308796</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.55000000000000004">
@@ -1101,19 +1100,19 @@
         <v>31</v>
       </c>
       <c r="B31" s="5">
-        <v>19.084461637653128</v>
+        <v>20.323624595469255</v>
       </c>
       <c r="C31" s="5">
-        <v>13.175885643256681</v>
+        <v>13.849033063006862</v>
       </c>
       <c r="D31" s="5">
-        <v>19.701678060907398</v>
+        <v>21.023081721771678</v>
       </c>
       <c r="E31" s="5">
-        <v>15.28899937849596</v>
+        <v>15.408608858390517</v>
       </c>
       <c r="F31" s="5">
-        <v>23.803604723430702</v>
+        <v>24.079850280723644</v>
       </c>
     </row>
   </sheetData>
